--- a/StructureDefinition-unknown-status-valueset.xlsx
+++ b/StructureDefinition-unknown-status-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T20:24:48+00:00</t>
+    <t>2022-04-11T20:32:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status-valueset.xlsx
+++ b/StructureDefinition-unknown-status-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T20:32:47+00:00</t>
+    <t>2022-04-11T20:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status-valueset.xlsx
+++ b/StructureDefinition-unknown-status-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T20:39:05+00:00</t>
+    <t>2022-04-11T20:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status-valueset.xlsx
+++ b/StructureDefinition-unknown-status-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T20:51:46+00:00</t>
+    <t>2022-04-12T16:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status-valueset.xlsx
+++ b/StructureDefinition-unknown-status-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T16:41:17+00:00</t>
+    <t>2022-04-12T16:48:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status-valueset.xlsx
+++ b/StructureDefinition-unknown-status-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T16:48:09+00:00</t>
+    <t>2022-04-12T16:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status-valueset.xlsx
+++ b/StructureDefinition-unknown-status-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T16:55:17+00:00</t>
+    <t>2022-04-12T16:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status-valueset.xlsx
+++ b/StructureDefinition-unknown-status-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T16:59:25+00:00</t>
+    <t>2022-04-12T17:07:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status-valueset.xlsx
+++ b/StructureDefinition-unknown-status-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:07:36+00:00</t>
+    <t>2022-04-12T17:18:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status-valueset.xlsx
+++ b/StructureDefinition-unknown-status-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:18:11+00:00</t>
+    <t>2022-04-12T17:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status-valueset.xlsx
+++ b/StructureDefinition-unknown-status-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:29:23+00:00</t>
+    <t>2022-04-12T17:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unknown-status-valueset.xlsx
+++ b/StructureDefinition-unknown-status-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:46:11+00:00</t>
+    <t>2022-04-12T17:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
